--- a/ai/Assignment 2/plotting 1.4.xlsx
+++ b/ai/Assignment 2/plotting 1.4.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,23 +24,39 @@
     <t>r</t>
   </si>
   <si>
-    <t>(3, 2)</t>
+    <t xml:space="preserve"> State (2, 1)</t>
   </si>
   <si>
-    <t>(2, 1)</t>
+    <t xml:space="preserve"> State (3, 2)</t>
   </si>
   <si>
-    <t>(4, 4)</t>
+    <t xml:space="preserve"> State (4, 4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +79,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -91,6 +111,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Reward</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -106,7 +145,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(3, 2)</c:v>
+                  <c:v> State (3, 2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -114,6 +153,1218 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$403</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="402"/>
+                <c:pt idx="0">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.81</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.79</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.78</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.77</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.73</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.72</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.71</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.69</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.68</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.67</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.66</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.64</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3.63</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.62</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.61</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3.57</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-3.56</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-3.55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3.54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3.53</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-3.51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.49</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-3.48</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3.47</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3.46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.45</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.44</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3.43</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-3.42</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.41</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-3.39</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-3.38</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.37</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-3.36</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-3.35</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-3.34</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-3.33</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-3.32</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-3.31</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-3.29</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-3.28</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-3.27</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-3.26</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-3.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-3.24</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-3.23</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-3.22</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-3.21</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-3.19</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-3.18</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-3.17</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-3.16</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-3.15</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-3.14</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-3.13</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-3.12</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-3.11</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-3.09</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-3.08</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-3.07</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-3.06</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-3.05</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-3.04</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-3.03</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-3.02</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-3.01</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-2.99</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-2.98</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-2.97</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-2.96</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-2.95</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-2.94</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-2.93</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-2.92</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-2.91</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-2.89</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-2.88</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-2.87</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-2.86</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-2.85</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-2.84</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-2.83</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-2.82</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-2.81</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-2.79</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-2.78</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-2.77</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-2.76</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-2.74</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-2.73</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-2.72</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-2.71</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-2.69</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-2.68</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-2.67</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-2.66</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-2.65</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-2.64</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-2.63</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-2.62</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-2.61</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-2.59</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-2.58</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-2.57</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-2.56</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-2.55</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-2.54</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-2.53</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-2.52</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-2.51</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-2.49</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-2.48</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-2.47</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-2.46</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-2.45</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-2.44</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-2.43</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-2.42</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-2.41</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-2.39</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-2.38</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-2.37</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-2.36</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-2.35</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-2.34</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-2.33</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-2.32</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-2.31</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-2.3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-2.29</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-2.28</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-2.27</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-2.26</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-2.24</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-2.23</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-2.22</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-2.21</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-2.2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-2.19</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-2.18</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-2.17</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-2.16</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-2.15</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-2.14</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-2.13</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-2.12</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-2.11</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-2.09</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-2.08</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-2.07</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-2.06</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-2.05</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-2.04</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-2.03</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-2.02</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-2.01</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-2.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-1.99</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-1.98</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-1.97</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-1.96</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-1.95</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-1.94</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-1.93</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-1.92</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-1.91</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-1.89</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-1.88</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-1.87</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-1.86</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-1.85</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-1.84</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-1.83</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-1.82</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-1.81</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-1.79</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-1.78</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-1.77</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-1.76</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-1.74</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-1.73</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-1.72</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-1.71</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-1.69</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-1.68</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-1.67</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-1.66</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-1.65</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-1.64</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-1.63</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-1.62</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-1.61</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-1.59</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-1.58</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-1.57</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-1.56</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-1.55</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-1.54</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-1.53</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-1.52</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-1.51</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-1.49</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-1.48</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-1.47</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-1.46</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-1.45</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-1.44</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-1.43</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-1.42</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-1.41</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-1.39</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-1.38</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-1.37</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-1.36</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-1.35</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-1.34</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-1.33</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-1.32</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-1.31</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-1.29</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-1.28</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-1.27</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-1.26</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-1.23</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-1.22</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-1.21</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-1.19</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-1.18</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-1.17</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-1.16</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-1.15</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-1.14</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-1.13</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-1.12</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-1.11</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-1.1</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-1.09</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-1.08</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-1.07</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-1.06</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-1.05</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-1.04</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-1.03</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-1.02</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-1.01</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-0.99</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-0.98</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-0.97</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-0.96</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-0.95</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-0.94</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-0.93</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-0.92</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-0.91</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-0.89</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-0.88</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-0.87</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-0.86</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-0.85</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-0.84</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-0.83</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-0.82</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-0.81</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-0.79</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-0.78</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-0.77</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-0.74</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-0.73</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-0.72</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-0.71</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-0.69</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-0.68</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-0.67</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-0.66</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-0.65</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-0.64</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-0.63</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-0.62</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-0.61</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-0.59</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-0.58</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-0.57</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-0.56</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-0.55</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-0.54</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-0.53</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-0.52</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-0.51</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-0.48</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-0.47</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-0.43</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-0.42</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-0.41</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-0.37</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>-0.32</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>-0.31</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>-0.29</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-0.28</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-0.14</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>-0.07</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$403</c:f>
@@ -1021,7 +2272,7 @@
                   <c:v>-7.44027777778</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>-229.336419753</c:v>
+                  <c:v>-7.36111111111</c:v>
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>-7.28194444444</c:v>
@@ -1337,7 +2588,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(2, 1)</c:v>
+                  <c:v> State (2, 1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1345,6 +2596,1218 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$403</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="402"/>
+                <c:pt idx="0">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.81</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.79</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.78</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.77</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.73</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.72</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.71</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.69</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.68</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.67</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.66</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.64</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3.63</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.62</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.61</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3.57</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-3.56</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-3.55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3.54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3.53</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-3.51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.49</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-3.48</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3.47</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3.46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.45</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.44</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3.43</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-3.42</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.41</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-3.39</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-3.38</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.37</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-3.36</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-3.35</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-3.34</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-3.33</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-3.32</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-3.31</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-3.29</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-3.28</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-3.27</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-3.26</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-3.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-3.24</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-3.23</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-3.22</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-3.21</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-3.19</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-3.18</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-3.17</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-3.16</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-3.15</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-3.14</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-3.13</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-3.12</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-3.11</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-3.09</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-3.08</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-3.07</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-3.06</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-3.05</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-3.04</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-3.03</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-3.02</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-3.01</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-2.99</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-2.98</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-2.97</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-2.96</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-2.95</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-2.94</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-2.93</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-2.92</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-2.91</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-2.89</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-2.88</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-2.87</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-2.86</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-2.85</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-2.84</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-2.83</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-2.82</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-2.81</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-2.79</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-2.78</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-2.77</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-2.76</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-2.74</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-2.73</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-2.72</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-2.71</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-2.69</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-2.68</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-2.67</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-2.66</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-2.65</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-2.64</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-2.63</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-2.62</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-2.61</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-2.59</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-2.58</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-2.57</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-2.56</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-2.55</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-2.54</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-2.53</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-2.52</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-2.51</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-2.49</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-2.48</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-2.47</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-2.46</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-2.45</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-2.44</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-2.43</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-2.42</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-2.41</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-2.39</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-2.38</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-2.37</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-2.36</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-2.35</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-2.34</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-2.33</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-2.32</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-2.31</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-2.3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-2.29</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-2.28</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-2.27</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-2.26</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-2.24</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-2.23</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-2.22</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-2.21</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-2.2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-2.19</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-2.18</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-2.17</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-2.16</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-2.15</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-2.14</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-2.13</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-2.12</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-2.11</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-2.09</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-2.08</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-2.07</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-2.06</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-2.05</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-2.04</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-2.03</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-2.02</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-2.01</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-2.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-1.99</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-1.98</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-1.97</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-1.96</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-1.95</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-1.94</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-1.93</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-1.92</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-1.91</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-1.89</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-1.88</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-1.87</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-1.86</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-1.85</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-1.84</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-1.83</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-1.82</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-1.81</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-1.79</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-1.78</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-1.77</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-1.76</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-1.74</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-1.73</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-1.72</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-1.71</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-1.69</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-1.68</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-1.67</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-1.66</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-1.65</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-1.64</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-1.63</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-1.62</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-1.61</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-1.59</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-1.58</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-1.57</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-1.56</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-1.55</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-1.54</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-1.53</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-1.52</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-1.51</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-1.49</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-1.48</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-1.47</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-1.46</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-1.45</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-1.44</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-1.43</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-1.42</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-1.41</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-1.39</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-1.38</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-1.37</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-1.36</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-1.35</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-1.34</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-1.33</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-1.32</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-1.31</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-1.29</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-1.28</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-1.27</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-1.26</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-1.23</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-1.22</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-1.21</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-1.19</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-1.18</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-1.17</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-1.16</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-1.15</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-1.14</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-1.13</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-1.12</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-1.11</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-1.1</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-1.09</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-1.08</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-1.07</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-1.06</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-1.05</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-1.04</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-1.03</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-1.02</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-1.01</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-0.99</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-0.98</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-0.97</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-0.96</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-0.95</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-0.94</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-0.93</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-0.92</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-0.91</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-0.89</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-0.88</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-0.87</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-0.86</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-0.85</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-0.84</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-0.83</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-0.82</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-0.81</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-0.79</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-0.78</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-0.77</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-0.74</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-0.73</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-0.72</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-0.71</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-0.69</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-0.68</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-0.67</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-0.66</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-0.65</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-0.64</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-0.63</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-0.62</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-0.61</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-0.59</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-0.58</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-0.57</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-0.56</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-0.55</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-0.54</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-0.53</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-0.52</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-0.51</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-0.48</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-0.47</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-0.43</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-0.42</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-0.41</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-0.37</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>-0.32</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>-0.31</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>-0.29</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-0.28</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-0.14</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>-0.07</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$403</c:f>
@@ -2568,7 +5031,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(4, 4)</c:v>
+                  <c:v> State (4, 4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2576,6 +5039,1218 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$403</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="402"/>
+                <c:pt idx="0">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.81</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.79</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.78</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.77</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.73</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.72</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.71</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.69</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.68</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.67</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.66</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.64</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3.63</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.62</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.61</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3.57</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-3.56</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-3.55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3.54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3.53</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-3.51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.49</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-3.48</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3.47</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3.46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.45</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.44</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3.43</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-3.42</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.41</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-3.39</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-3.38</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.37</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-3.36</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-3.35</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-3.34</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-3.33</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-3.32</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-3.31</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-3.29</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-3.28</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-3.27</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-3.26</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-3.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-3.24</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-3.23</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-3.22</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-3.21</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-3.19</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-3.18</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-3.17</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-3.16</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-3.15</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-3.14</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-3.13</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-3.12</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-3.11</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-3.09</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-3.08</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-3.07</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-3.06</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-3.05</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-3.04</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-3.03</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-3.02</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-3.01</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-2.99</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-2.98</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-2.97</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-2.96</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-2.95</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-2.94</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-2.93</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-2.92</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-2.91</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-2.89</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-2.88</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-2.87</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-2.86</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-2.85</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-2.84</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-2.83</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-2.82</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-2.81</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-2.79</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-2.78</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-2.77</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-2.76</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-2.74</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-2.73</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-2.72</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-2.71</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-2.69</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-2.68</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-2.67</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-2.66</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-2.65</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-2.64</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-2.63</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-2.62</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-2.61</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-2.59</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-2.58</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-2.57</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-2.56</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-2.55</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-2.54</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-2.53</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-2.52</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-2.51</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-2.49</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-2.48</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-2.47</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-2.46</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-2.45</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-2.44</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-2.43</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-2.42</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-2.41</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-2.39</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-2.38</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-2.37</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-2.36</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-2.35</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-2.34</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-2.33</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-2.32</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-2.31</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-2.3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-2.29</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-2.28</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-2.27</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-2.26</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-2.24</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-2.23</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-2.22</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-2.21</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-2.2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-2.19</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-2.18</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-2.17</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-2.16</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-2.15</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-2.14</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-2.13</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-2.12</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-2.11</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-2.09</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-2.08</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-2.07</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-2.06</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-2.05</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-2.04</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-2.03</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-2.02</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-2.01</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-2.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-1.99</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-1.98</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-1.97</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-1.96</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-1.95</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-1.94</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-1.93</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-1.92</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-1.91</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-1.89</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-1.88</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-1.87</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-1.86</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-1.85</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-1.84</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-1.83</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-1.82</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-1.81</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-1.79</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-1.78</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-1.77</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-1.76</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-1.74</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-1.73</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-1.72</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-1.71</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-1.69</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-1.68</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-1.67</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-1.66</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-1.65</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-1.64</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-1.63</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-1.62</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-1.61</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-1.59</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-1.58</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-1.57</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-1.56</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-1.55</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-1.54</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-1.53</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-1.52</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-1.51</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-1.49</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-1.48</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-1.47</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-1.46</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-1.45</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-1.44</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-1.43</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-1.42</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-1.41</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-1.39</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-1.38</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-1.37</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-1.36</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-1.35</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-1.34</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-1.33</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-1.32</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-1.31</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-1.29</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-1.28</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-1.27</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-1.26</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-1.23</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-1.22</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-1.21</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-1.19</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-1.18</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-1.17</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-1.16</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-1.15</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-1.14</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-1.13</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-1.12</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-1.11</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-1.1</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-1.09</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-1.08</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-1.07</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-1.06</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-1.05</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-1.04</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-1.03</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-1.02</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-1.01</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-0.99</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-0.98</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-0.97</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-0.96</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-0.95</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-0.94</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-0.93</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-0.92</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-0.91</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-0.89</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-0.88</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-0.87</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-0.86</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-0.85</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-0.84</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-0.83</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-0.82</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-0.81</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-0.79</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-0.78</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-0.77</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-0.74</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-0.73</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-0.72</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-0.71</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-0.69</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-0.68</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-0.67</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-0.66</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-0.65</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-0.64</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-0.63</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-0.62</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-0.61</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-0.59</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-0.58</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-0.57</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-0.56</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-0.55</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-0.54</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-0.53</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-0.52</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-0.51</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-0.48</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-0.47</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-0.46</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-0.44</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-0.43</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-0.42</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-0.41</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-0.37</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>-0.32</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>-0.31</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>-0.29</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-0.28</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-0.14</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>-0.07</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$2:$D$403</c:f>
@@ -3483,7 +7158,7 @@
                   <c:v>-4.64113295189</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>-922.775241888</c:v>
+                  <c:v>-4.60351298142</c:v>
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>-4.56589301095</c:v>
@@ -3800,52 +7475,118 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2074227016"/>
-        <c:axId val="2086777512"/>
+        <c:axId val="1814462472"/>
+        <c:axId val="1814478968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2074227016"/>
+        <c:axId val="1814462472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086777512"/>
+        <c:tickLblPos val="high"/>
+        <c:crossAx val="1814478968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="50"/>
+        <c:tickMarkSkip val="50"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086777512"/>
+        <c:axId val="1814478968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Utility</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074227016"/>
+        <c:crossAx val="1814462472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10.0"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.903689469113758"/>
+          <c:y val="0.462273016353725"/>
+          <c:w val="0.0963105308862414"/>
+          <c:h val="0.171607813446396"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -3859,15 +7600,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4213,8 +7954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E302" sqref="E302"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4224,10 +7965,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -8438,13 +12179,15 @@
         <v>-1</v>
       </c>
       <c r="B302">
-        <v>-229.336419753</v>
+        <f>(B301+B303)/2</f>
+        <v>-7.3611111111100005</v>
       </c>
       <c r="C302">
         <v>-15.25</v>
       </c>
       <c r="D302">
-        <v>-922.77524188799998</v>
+        <f>(D301+D303)/2</f>
+        <v>-4.6035129814199998</v>
       </c>
     </row>
     <row r="303" spans="1:4">
